--- a/毕业设计/舆情监测系统/词频统计与情感分析/result.xlsx
+++ b/毕业设计/舆情监测系统/词频统计与情感分析/result.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>text</t>
   </si>
@@ -65,6 +65,86 @@
   </si>
   <si>
     <t xml:space="preserve">世另我[抠鼻]（那些年被支配的恐惧）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我也是，我小时候我不敢跟任何陌生人提出需求，我至今还记得小时候妈妈带我去大润发，我很想吃披萨，但是卖光了，要等，我妈就不耐烦等，让我去问售货员什么时候能做好，我不敢去问，想让我妈陪我一起去问，我妈就凶我，一个劲催我去问，我磨磨蹭蹭走过去，正好披萨做好了被拿出来，身边瞬间涌过来一群阿姨抢购披萨，吓得我转身就跑回去找妈妈，我妈问我披萨好了没，我说我不想吃披萨了，我妈说那可是你自己说的不想吃，我委屈点头表示肯定，心里其实想吃的不得了。那以后的很多年我都在想，当时妈妈为什么不帮我去问一问看一看呢？哪怕她带着我一起去也好，而不是只让我一个人去。在我一开始表达不敢去想让妈妈陪我一起去的时候，她还要骂我，当时我是真的很害怕，我不是在撒娇，是真的害怕一个人去跟陌生人说话[大哭]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回复 @一只小仙人掌 :其实如果她带你去问还是不耐烦的状态下哪里是你问，就纯粹是他问了
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看到弹幕说：各位表白的年轻人也要意识到这一点，属实给👴🏻整破防了
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“没有关系，那我下次再来。”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回复 @BUG-626 :会被当成变态的啊！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们一直在讲现在的孩子缺乏挫折教育，啥是挫折教育？这就是！不是单纯的让孩子承受挫折，而且让他学会面对挫折时有再次尝试的勇气！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对，我妈在我小时候光让我体会挫折了，搞得我现在很少对他人抱有期望，毕竟连最亲近的人都经常拒绝你，靠得住的也只有自己了
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回复 @xiaobingqi :有一个词叫：习得性无助。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆 @xiaobingqi :我也是，我在家里动辄得咎，还美其名曰现在严格之后到社会就适应了，可不是，在外边我都觉得大家都好好，有最起码的尊重，在家就各种不自在
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我男的，小时候我和我爸说我要买积木玩具，他不耐烦就随口说想要的东西就自己抢到手，然后我就杀进玩具店抱了两三个直接往外跑，然后我爸人都傻了连忙拉我去结账哈哈哈哈[热词系列_知识增加]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所以爸爸的教育是对的，最后你的目的达到了[笑哭]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛啊，你把回到家直接拿出了七匹狼皮带
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回复 @寒露回不回jia :但是爸爸的目的没达到[笑哭]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这真的教的很好。我之前坐公交一个小孩子上来就要拿我的手机，我没给，她妈妈说你问阿姨要呀（我那会还在读书呢，阿姨[笑哭]）而且这不是一颗糖一个气球，给了也没关系，小朋友说的时候我就笑着说这个是姐姐的不能给你，结果这小孩冲上来踢我想直接抢我手机，她妈妈看着在笑，我下车时还听到她妈妈说，打死她，让她不给，我们宝宝打死她。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这种人不多见，遇见了就要难受一整天[呆]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看似没文明，实则是“传承”，正所谓不是一家人，不进一家门
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回复 @小药郎美如画 :这种事情我都难受很久，只是当天之后一段时间，每次想起来都挺难受[呆]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原本看着这个视频\n是抱着逗弄小孩子的期望\n就像是和可爱的小猫小狗那样的互动\n可是，看到当小朋友被拒绝那一刻\n先是惊愕，再是一瞬间的迷惘，再到语无伦次的“没...”，还有下意识的回避“不知道”，再到“不，妈妈”，下意识地寻求和母亲或者说拒绝对象的靠近\n，再到即便被教了一遍，被拒绝时还止不住得想要躲避，想要隐藏自己。\n我哭了，我忽然想到了被合唱团淘汰，想到曾经最好的朋友背叛自己，第一次表白失败，想到寒假实习时被舍管挡在门外，而呆立在雪地里，想到了和初恋分手，想到了面试被拒绝，想到了简历石沉大海，想到了工作中一次又一次的碰壁\n谢谢你，陌生人。隔着屏幕我也吃到了这份勇气糖啦
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你也很勇敢！！[给心心]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当看到孩子面对突如其来挫折的时候，下意识地喊妈妈，抱住妈妈，然后躲到妈妈身后的时候，我是多么羡慕多么怀念，我尽力去我的回忆里寻找相同的回忆，零星模糊的回忆让我很难过。
 </t>
   </si>
 </sst>
@@ -72,32 +152,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -120,9 +543,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -130,11 +795,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,17 +1134,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -479,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9991370000000001</v>
+        <v>0.999137</v>
       </c>
       <c r="D4">
-        <v>0.000388617</v>
+        <v>0.000388618</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -535,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.627599</v>
+        <v>0.6276</v>
       </c>
       <c r="D8">
         <v>0.83242</v>
@@ -583,7 +1308,288 @@
         <v>0.406031</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.999447</v>
+      </c>
+      <c r="D12">
+        <v>0.000248677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.97003</v>
+      </c>
+      <c r="D13">
+        <v>0.0134864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.286817</v>
+      </c>
+      <c r="D14">
+        <v>0.320933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.951342</v>
+      </c>
+      <c r="D15">
+        <v>0.978104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.999396</v>
+      </c>
+      <c r="D16">
+        <v>0.000272001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.464956</v>
+      </c>
+      <c r="D17">
+        <v>0.24077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.263801</v>
+      </c>
+      <c r="D18">
+        <v>0.33129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.90072</v>
+      </c>
+      <c r="D19">
+        <v>0.495036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.310354</v>
+      </c>
+      <c r="D20">
+        <v>0.310341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.654469</v>
+      </c>
+      <c r="D21">
+        <v>0.155489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.943904</v>
+      </c>
+      <c r="D22">
+        <v>0.974757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.783944</v>
+      </c>
+      <c r="D23">
+        <v>0.902775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.944467</v>
+      </c>
+      <c r="D24">
+        <v>0.02499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.70864</v>
+      </c>
+      <c r="D25">
+        <v>0.131112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.95831</v>
+      </c>
+      <c r="D26">
+        <v>0.0187605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.993784</v>
+      </c>
+      <c r="D27">
+        <v>0.00279713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.27224</v>
+      </c>
+      <c r="D28">
+        <v>0.327492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.0956537</v>
+      </c>
+      <c r="D29">
+        <v>0.406956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0.999916</v>
+      </c>
+      <c r="D30">
+        <v>0.999962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.992384</v>
+      </c>
+      <c r="D31">
+        <v>0.996573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>